--- a/요구사항 명세서 양식/요구사항 명세서_네이버쇼핑.xlsx
+++ b/요구사항 명세서 양식/요구사항 명세서_네이버쇼핑.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="183">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -8181,7 +8181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8271,14 +8271,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8612,8 +8606,8 @@
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8969,7 +8963,7 @@
       <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="17">
@@ -9044,10 +9038,10 @@
       <c r="C17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="17">
@@ -9232,9 +9226,15 @@
       <c r="E24" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="9"/>
     </row>
@@ -9252,9 +9252,15 @@
       <c r="E25" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="F25" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="9"/>
     </row>
@@ -9272,9 +9278,15 @@
       <c r="E26" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="9"/>
     </row>
@@ -9292,9 +9304,15 @@
       <c r="E27" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="F27" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="9"/>
     </row>
@@ -9309,12 +9327,18 @@
       <c r="D28" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="13"/>
+      <c r="F28" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="9"/>
     </row>
@@ -9332,9 +9356,15 @@
       <c r="E29" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="19"/>
+      <c r="F29" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="12"/>
     </row>
@@ -9352,9 +9382,15 @@
       <c r="E30" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="13"/>
+      <c r="F30" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="9"/>
     </row>
@@ -9372,9 +9408,15 @@
       <c r="E31" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="13"/>
+      <c r="F31" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I31" s="13"/>
       <c r="J31" s="9"/>
     </row>
@@ -9392,9 +9434,15 @@
       <c r="E32" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="13"/>
+      <c r="F32" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="9"/>
     </row>
@@ -9412,9 +9460,15 @@
       <c r="E33" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="F33" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="9"/>
     </row>
@@ -9432,9 +9486,15 @@
       <c r="E34" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="F34" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="9"/>
     </row>
@@ -9452,9 +9512,15 @@
       <c r="E35" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="19"/>
+      <c r="F35" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I35" s="19"/>
       <c r="J35" s="12"/>
     </row>
@@ -9472,9 +9538,15 @@
       <c r="E36" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="19"/>
+      <c r="F36" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I36" s="19"/>
       <c r="J36" s="12"/>
     </row>
@@ -9492,9 +9564,15 @@
       <c r="E37" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="19"/>
+      <c r="F37" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="12"/>
     </row>
@@ -9512,9 +9590,15 @@
       <c r="E38" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="13"/>
+      <c r="F38" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="9"/>
     </row>
@@ -9529,12 +9613,18 @@
       <c r="D39" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="F39" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I39" s="13"/>
       <c r="J39" s="9"/>
     </row>
@@ -9552,9 +9642,15 @@
       <c r="E40" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="F40" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="9"/>
     </row>
@@ -9569,12 +9665,18 @@
       <c r="D41" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="13"/>
+      <c r="F41" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="9"/>
     </row>
@@ -9592,9 +9694,15 @@
       <c r="E42" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="F42" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="9"/>
     </row>
@@ -9612,9 +9720,15 @@
       <c r="E43" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="F43" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I43" s="13"/>
       <c r="J43" s="9"/>
     </row>
@@ -9632,9 +9746,15 @@
       <c r="E44" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="13"/>
+      <c r="F44" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I44" s="13"/>
       <c r="J44" s="9"/>
     </row>
@@ -9652,9 +9772,15 @@
       <c r="E45" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="F45" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="12"/>
     </row>
@@ -9669,12 +9795,18 @@
       <c r="D46" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="F46" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I46" s="13"/>
       <c r="J46" s="9"/>
     </row>
@@ -9692,9 +9824,15 @@
       <c r="E47" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="F47" s="17">
+        <v>44341</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="I47" s="13"/>
       <c r="J47" s="9"/>
     </row>
@@ -9705,7 +9843,7 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="34"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="17"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -9719,7 +9857,7 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="34"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="17"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -9733,7 +9871,7 @@
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="34"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="17"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -9747,7 +9885,7 @@
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="34"/>
+      <c r="E51" s="32"/>
       <c r="F51" s="17"/>
       <c r="G51" s="26"/>
       <c r="H51" s="13"/>
@@ -9761,7 +9899,7 @@
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="34"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="17"/>
       <c r="G52" s="26"/>
       <c r="H52" s="13"/>
@@ -9775,7 +9913,7 @@
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="36"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="17"/>
       <c r="G53" s="26"/>
       <c r="H53" s="13"/>
@@ -9789,7 +9927,7 @@
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="17"/>
       <c r="G54" s="26"/>
       <c r="H54" s="13"/>
@@ -9803,7 +9941,7 @@
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="34"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="17"/>
       <c r="G55" s="26"/>
       <c r="H55" s="13"/>
@@ -9817,7 +9955,7 @@
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="35"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="24"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
@@ -9831,7 +9969,7 @@
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="34"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="17"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -9845,7 +9983,7 @@
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="34"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="17"/>
       <c r="G58" s="26"/>
       <c r="H58" s="13"/>
@@ -9859,7 +9997,7 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="34"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="17"/>
       <c r="G59" s="26"/>
       <c r="H59" s="13"/>
@@ -9873,7 +10011,7 @@
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="35"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="24"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
@@ -9887,7 +10025,7 @@
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="34"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="17"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -9901,7 +10039,7 @@
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="34"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="17"/>
       <c r="G62" s="26"/>
       <c r="H62" s="13"/>
@@ -9915,7 +10053,7 @@
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="34"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="17"/>
       <c r="G63" s="26"/>
       <c r="H63" s="13"/>
@@ -9929,7 +10067,7 @@
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="34"/>
+      <c r="E64" s="32"/>
       <c r="F64" s="17"/>
       <c r="G64" s="26"/>
       <c r="H64" s="13"/>
@@ -9943,7 +10081,7 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="34"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="17"/>
       <c r="G65" s="26"/>
       <c r="H65" s="13"/>
@@ -9957,7 +10095,7 @@
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="34"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="17"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -9971,7 +10109,7 @@
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="34"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="17"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -9985,7 +10123,7 @@
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="34"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="17"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -9999,7 +10137,7 @@
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
-      <c r="E69" s="34"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="17"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -10013,7 +10151,7 @@
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="34"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="17"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -10027,7 +10165,7 @@
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="34"/>
+      <c r="E71" s="32"/>
       <c r="F71" s="17"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -10041,7 +10179,7 @@
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
-      <c r="E72" s="34"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="17"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -10055,7 +10193,7 @@
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="34"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="17"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -10069,7 +10207,7 @@
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="34"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="17"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -10083,7 +10221,7 @@
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="34"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="17"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -10097,7 +10235,7 @@
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="28"/>
-      <c r="E76" s="36"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="17"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -10111,7 +10249,7 @@
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="34"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="17"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -10125,7 +10263,7 @@
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="35"/>
+      <c r="E78" s="33"/>
       <c r="F78" s="24"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
@@ -10139,7 +10277,7 @@
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="36"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="17"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -10153,7 +10291,7 @@
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="36"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="17"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -10167,7 +10305,7 @@
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="36"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="17"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
@@ -10181,7 +10319,7 @@
       </c>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="37"/>
+      <c r="E82" s="35"/>
       <c r="F82" s="17"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -10190,10 +10328,10 @@
     </row>
     <row r="83" spans="1:10" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -10201,24 +10339,24 @@
       <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I82">

--- a/요구사항 명세서 양식/요구사항 명세서_네이버쇼핑.xlsx
+++ b/요구사항 명세서 양식/요구사항 명세서_네이버쇼핑.xlsx
@@ -1115,10 +1115,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리를 클릭하면 중분류가 나오고 중분류, 소분류가 나온다. 
-선택하면 해당 분류로 검색한다</t>
-  </si>
-  <si>
     <t>중단 화면 구성</t>
   </si>
   <si>
@@ -8050,6 +8046,155 @@
         <charset val="129"/>
       </rPr>
       <t>보여준다</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카테고리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소분류가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나온다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색한다</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8606,8 +8751,8 @@
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8756,7 +8901,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="17">
         <v>44341</v>
@@ -8779,10 +8924,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="17">
         <v>44341</v>
@@ -8805,10 +8950,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="17">
         <v>44341</v>
@@ -8834,7 +8979,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="F9" s="17">
         <v>44341</v>
@@ -8857,10 +9002,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="17">
         <v>44341</v>
@@ -8883,10 +9028,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="17">
         <v>44341</v>
@@ -8909,10 +9054,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="17">
         <v>44341</v>
@@ -8929,16 +9074,16 @@
     <row r="13" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="17">
         <v>44341</v>
@@ -8955,16 +9100,16 @@
     <row r="14" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="17">
         <v>44341</v>
@@ -8981,16 +9126,16 @@
     <row r="15" spans="1:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="17">
         <v>44341</v>
@@ -9007,16 +9152,16 @@
     <row r="16" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="F16" s="17">
         <v>44341</v>
@@ -9033,16 +9178,16 @@
     <row r="17" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>52</v>
       </c>
       <c r="F17" s="17">
         <v>44341</v>
@@ -9059,16 +9204,16 @@
     <row r="18" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="F18" s="17">
         <v>44341</v>
@@ -9085,16 +9230,16 @@
     <row r="19" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="17">
         <v>44341</v>
@@ -9111,16 +9256,16 @@
     <row r="20" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="F20" s="17">
         <v>44341</v>
@@ -9137,16 +9282,16 @@
     <row r="21" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="17">
         <v>44341</v>
@@ -9163,16 +9308,16 @@
     <row r="22" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="F22" s="17">
         <v>44341</v>
@@ -9189,16 +9334,16 @@
     <row r="23" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F23" s="17">
         <v>44341</v>
@@ -9215,16 +9360,16 @@
     <row r="24" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="F24" s="17">
         <v>44341</v>
@@ -9241,16 +9386,16 @@
     <row r="25" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="F25" s="17">
         <v>44341</v>
@@ -9267,16 +9412,16 @@
     <row r="26" spans="1:10" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="F26" s="17">
         <v>44341</v>
@@ -9293,16 +9438,16 @@
     <row r="27" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="17">
         <v>44341</v>
@@ -9319,16 +9464,16 @@
     <row r="28" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="17">
         <v>44341</v>
@@ -9345,16 +9490,16 @@
     <row r="29" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="17">
         <v>44341</v>
@@ -9371,16 +9516,16 @@
     <row r="30" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="17">
         <v>44341</v>
@@ -9397,16 +9542,16 @@
     <row r="31" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="F31" s="17">
         <v>44341</v>
@@ -9423,16 +9568,16 @@
     <row r="32" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="F32" s="17">
         <v>44341</v>
@@ -9449,16 +9594,16 @@
     <row r="33" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="F33" s="17">
         <v>44341</v>
@@ -9475,16 +9620,16 @@
     <row r="34" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="F34" s="17">
         <v>44341</v>
@@ -9501,16 +9646,16 @@
     <row r="35" spans="1:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="F35" s="17">
         <v>44341</v>
@@ -9527,16 +9672,16 @@
     <row r="36" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" s="17">
         <v>44341</v>
@@ -9553,16 +9698,16 @@
     <row r="37" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F37" s="17">
         <v>44341</v>
@@ -9579,16 +9724,16 @@
     <row r="38" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="17">
         <v>44341</v>
@@ -9605,16 +9750,16 @@
     <row r="39" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F39" s="17">
         <v>44341</v>
@@ -9631,16 +9776,16 @@
     <row r="40" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" s="17">
         <v>44341</v>
@@ -9657,16 +9802,16 @@
     <row r="41" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F41" s="17">
         <v>44341</v>
@@ -9683,16 +9828,16 @@
     <row r="42" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="F42" s="17">
         <v>44341</v>
@@ -9709,16 +9854,16 @@
     <row r="43" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>169</v>
       </c>
       <c r="F43" s="17">
         <v>44341</v>
@@ -9735,16 +9880,16 @@
     <row r="44" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="F44" s="17">
         <v>44341</v>
@@ -9761,16 +9906,16 @@
     <row r="45" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="17">
         <v>44341</v>
@@ -9787,16 +9932,16 @@
     <row r="46" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>179</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>180</v>
       </c>
       <c r="F46" s="17">
         <v>44341</v>
@@ -9813,16 +9958,16 @@
     <row r="47" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="F47" s="17">
         <v>44341</v>
@@ -9839,7 +9984,7 @@
     <row r="48" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -9853,7 +9998,7 @@
     <row r="49" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -9867,7 +10012,7 @@
     <row r="50" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -9881,7 +10026,7 @@
     <row r="51" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -9895,7 +10040,7 @@
     <row r="52" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -9909,7 +10054,7 @@
     <row r="53" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -9923,7 +10068,7 @@
     <row r="54" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -9937,7 +10082,7 @@
     <row r="55" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -9951,7 +10096,7 @@
     <row r="56" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -9965,7 +10110,7 @@
     <row r="57" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -9979,7 +10124,7 @@
     <row r="58" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -9993,7 +10138,7 @@
     <row r="59" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -10007,7 +10152,7 @@
     <row r="60" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -10021,7 +10166,7 @@
     <row r="61" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -10035,7 +10180,7 @@
     <row r="62" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -10049,7 +10194,7 @@
     <row r="63" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -10063,7 +10208,7 @@
     <row r="64" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -10077,7 +10222,7 @@
     <row r="65" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -10091,7 +10236,7 @@
     <row r="66" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -10105,7 +10250,7 @@
     <row r="67" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -10119,7 +10264,7 @@
     <row r="68" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -10133,7 +10278,7 @@
     <row r="69" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -10147,7 +10292,7 @@
     <row r="70" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -10161,7 +10306,7 @@
     <row r="71" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -10175,7 +10320,7 @@
     <row r="72" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -10189,7 +10334,7 @@
     <row r="73" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -10203,7 +10348,7 @@
     <row r="74" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -10217,7 +10362,7 @@
     <row r="75" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -10231,7 +10376,7 @@
     <row r="76" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="28"/>
@@ -10245,7 +10390,7 @@
     <row r="77" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -10259,7 +10404,7 @@
     <row r="78" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
@@ -10273,7 +10418,7 @@
     <row r="79" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="28"/>
@@ -10287,7 +10432,7 @@
     <row r="80" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -10301,7 +10446,7 @@
     <row r="81" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="28"/>
@@ -10315,7 +10460,7 @@
     <row r="82" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>

--- a/요구사항 명세서 양식/요구사항 명세서_네이버쇼핑.xlsx
+++ b/요구사항 명세서 양식/요구사항 명세서_네이버쇼핑.xlsx
@@ -8752,7 +8752,7 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
